--- a/files/SM1/K3/K3-P58-T1.xlsx
+++ b/files/SM1/K3/K3-P58-T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017AC65-4909-4EC1-AAEB-45261160D3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6171C7C9-130F-4A14-89AD-9DF5FFDD7A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2650" yWindow="3510" windowWidth="17720" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>soittaa</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>on Thursdays</t>
-  </si>
-  <si>
-    <t>time (instance)</t>
   </si>
   <si>
     <t>Oh wow!</t>
@@ -370,6 +367,34 @@
   </si>
   <si>
     <t>job / workplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time, piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhtä ... kuin ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as … as ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niin … että …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so … that …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G + täytyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb. have to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -921,274 +946,298 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>112</v>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
